--- a/data/ABPO - séries para ajuste sazonal.xlsx
+++ b/data/ABPO - séries para ajuste sazonal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Informacoes empresariais\ABPO\Projetos\2018\00_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonatha.costa\Desktop\calendario\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Exped. Total (t) por dia útil</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Fat. nominal</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -269,13 +272,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,9 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -568,6 +569,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -7583,16 +7587,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
